--- a/docs/scoring_logic.xlsx
+++ b/docs/scoring_logic.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A2:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/scoring_logic.xlsx
+++ b/docs/scoring_logic.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Frame 1</t>
   </si>
@@ -62,7 +62,10 @@
     <t>Ball score</t>
   </si>
   <si>
-    <t>Total score</t>
+    <t>frame score</t>
+  </si>
+  <si>
+    <t>total score</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -127,21 +130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -175,17 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +185,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="1447800"/>
+          <a:ext cx="7353300" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V4"/>
+  <dimension ref="A2:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="T4" sqref="T4:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,137 +505,222 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="5"/>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="3">
         <f>IF(B3="","",B3+C3+IF(B3=10,D3+IF(D3=10,F3,E3),IF((B3+C3)=10,D3,0)))</f>
-        <v/>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
-        <f>IF(D3="","",B4+D3+E3+IF(D3=10,F3+IF(F3=10,H3,G3),IF((D3+E3)=10,F3,0)))</f>
-        <v/>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4" si="0">IF(F3="","",D4+F3+G3+IF(F3=10,H3+IF(H3=10,J3,I3),IF((F3+G3)=10,H3,0)))</f>
-        <v/>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="str">
-        <f t="shared" ref="H4" si="1">IF(H3="","",F4+H3+I3+IF(H3=10,J3+IF(J3=10,L3,K3),IF((H3+I3)=10,J3,0)))</f>
-        <v/>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4" si="2">IF(J3="","",H4+J3+K3+IF(J3=10,L3+IF(L3=10,N3,M3),IF((J3+K3)=10,L3,0)))</f>
-        <v/>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="str">
-        <f t="shared" ref="L4" si="3">IF(L3="","",J4+L3+M3+IF(L3=10,N3+IF(N3=10,P3,O3),IF((L3+M3)=10,N3,0)))</f>
-        <v/>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4" si="4">IF(N3="","",L4+N3+O3+IF(N3=10,P3+IF(P3=10,R3,Q3),IF((N3+O3)=10,P3,0)))</f>
-        <v/>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="str">
-        <f t="shared" ref="P4" si="5">IF(P3="","",N4+P3+Q3+IF(P3=10,R3+IF(R3=10,T3,S3),IF((P3+Q3)=10,R3,0)))</f>
-        <v/>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="str">
-        <f t="shared" ref="R4" si="6">IF(R3="","",P4+R3+S3+IF(R3=10,T3+IF(T3=10,V3,U3),IF((R3+S3)=10,T3,0)))</f>
-        <v/>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="str">
-        <f>IF(T3="","",R4+T3+U3+V3)</f>
-        <v/>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4" si="0">IF(D3="","",D3+E3+IF(D3=10,F3+IF(F3=10,H3,G3),IF((D3+E3)=10,F3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4" si="1">IF(F3="","",F3+G3+IF(F3=10,H3+IF(H3=10,J3,I3),IF((F3+G3)=10,H3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4" si="2">IF(H3="","",H3+I3+IF(H3=10,J3+IF(J3=10,L3,K3),IF((H3+I3)=10,J3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4" si="3">IF(J3="","",J3+K3+IF(J3=10,L3+IF(L3=10,N3,M3),IF((J3+K3)=10,L3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4" si="4">IF(L3="","",L3+M3+IF(L3=10,N3+IF(N3=10,P3,O3),IF((L3+M3)=10,N3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4" si="5">IF(N3="","",N3+O3+IF(N3=10,P3+IF(P3=10,R3,Q3),IF((N3+O3)=10,P3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4" si="6">IF(P3="","",P3+Q3+IF(P3=10,R3+IF(R3=10,T3,S3),IF((P3+Q3)=10,R3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
+        <f>IF(R3="","",R3+S3+IF(R3=10,T3+U3,IF((R3+S3)=10,T3,0)))</f>
+        <v>30</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <f>IF(T3="","",IF(T3=10,T3+U3+V3,T3)+U3+V3)</f>
+        <v>50</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B4</f>
+        <v>30</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <f>D4+B5</f>
+        <v>60</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5" si="7">F4+D5</f>
+        <v>90</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5" si="8">H4+F5</f>
+        <v>120</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5" si="9">J4+H5</f>
+        <v>150</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5" si="10">L4+J5</f>
+        <v>180</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5" si="11">N4+L5</f>
+        <v>210</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5" si="12">P4+N5</f>
+        <v>240</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5" si="13">R4+P5</f>
+        <v>270</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <f>IF(T4="","",R5+T4+U4+V4)</f>
+        <v>320</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:V4"/>
+  <mergeCells count="30">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
@@ -621,6 +736,11 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:V3">
@@ -629,5 +749,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>